--- a/sudheer/faculties.xlsx
+++ b/sudheer/faculties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\F-BOT\Final_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectF\sudheer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="120">
   <si>
     <t>Faculty</t>
   </si>
@@ -98,9 +98,6 @@
     <t>MCP</t>
   </si>
   <si>
-    <t>DM</t>
-  </si>
-  <si>
     <t>AHL</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>KI</t>
   </si>
   <si>
-    <t>VB</t>
-  </si>
-  <si>
     <t>ADD</t>
   </si>
   <si>
@@ -252,6 +246,150 @@
   </si>
   <si>
     <t>Darji (HOD)</t>
+  </si>
+  <si>
+    <t>U.D. Dalal</t>
+  </si>
+  <si>
+    <t>UDD</t>
+  </si>
+  <si>
+    <t>Multimedia, Digital Communication</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>R.N. Dhavse</t>
+  </si>
+  <si>
+    <t>RND</t>
+  </si>
+  <si>
+    <t>VLSI Design</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>J.N.Patel</t>
+  </si>
+  <si>
+    <t>JNP</t>
+  </si>
+  <si>
+    <t>Error Control Coding</t>
+  </si>
+  <si>
+    <t>ECC</t>
+  </si>
+  <si>
+    <t>S.Gupta</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t>S.N. Shah</t>
+  </si>
+  <si>
+    <t>SNS</t>
+  </si>
+  <si>
+    <t>Mobile Communication</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>K.P.Upla</t>
+  </si>
+  <si>
+    <t>KPU</t>
+  </si>
+  <si>
+    <t>Image Processing and computer Vision, Signals and systems</t>
+  </si>
+  <si>
+    <t>IPCV, SNS</t>
+  </si>
+  <si>
+    <t>Suman Deb</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Signal Processing</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Deergha Agarwal</t>
+  </si>
+  <si>
+    <t>Nafeesa Saleh</t>
+  </si>
+  <si>
+    <t>Signals and Systems</t>
+  </si>
+  <si>
+    <t>Abhisheka Jain</t>
+  </si>
+  <si>
+    <t>Electromagnetic Waves and Radiation Systems</t>
+  </si>
+  <si>
+    <t>EWRS</t>
+  </si>
+  <si>
+    <t>Dipaliben Patel</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>Bhoomika Patel</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>Mitaliben Patel</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>Neural Networks</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>Jinal Patel</t>
+  </si>
+  <si>
+    <t>L5</t>
   </si>
 </sst>
 </file>
@@ -607,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,16 +772,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -660,16 +798,16 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -686,16 +824,16 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -712,16 +850,16 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -738,24 +876,24 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>0.35416666666666669</v>
@@ -764,16 +902,16 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -781,7 +919,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1">
         <v>0.35416666666666669</v>
@@ -790,16 +928,16 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -807,7 +945,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>0.35416666666666669</v>
@@ -816,16 +954,16 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
         <v>70</v>
       </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -833,7 +971,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>0.35416666666666669</v>
@@ -842,16 +980,16 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -859,7 +997,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>0.35416666666666669</v>
@@ -868,16 +1006,16 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -885,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>0.35416666666666669</v>
@@ -894,16 +1032,16 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -911,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
         <v>0.35416666666666669</v>
@@ -920,16 +1058,16 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>0.35416666666666669</v>
@@ -946,16 +1084,16 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -963,7 +1101,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>0.35416666666666669</v>
@@ -972,16 +1110,16 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -989,7 +1127,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>0.35416666666666669</v>
@@ -998,68 +1136,458 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
         <v>69</v>
       </c>
-      <c r="F17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
         <v>49</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E32" t="s">
         <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
